--- a/效率.xlsx
+++ b/效率.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B01CB8-9FFF-4FF7-B442-B43BA07C3FD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E7BA84-E675-4C88-A920-168BAA55D5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Nigeria</t>
   </si>
@@ -92,6 +92,9 @@
   <si>
     <t>原本</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCA评价的效率得分</t>
   </si>
 </sst>
 </file>
@@ -462,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -621,7 +624,7 @@
         <v>22.07</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K6:K10" si="0">J7-B7</f>
+        <f t="shared" ref="K7:K10" si="0">J7-B7</f>
         <v>-0.46999999999999886</v>
       </c>
       <c r="L7">
@@ -820,7 +823,7 @@
         <v>95.5713873811155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
@@ -840,7 +843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -862,8 +865,20 @@
       <c r="G21" s="2">
         <v>22.053999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f>G21/$G$25</f>
+        <v>0.26776261473459273</v>
+      </c>
+      <c r="I21">
+        <f>H21*0.01</f>
+        <v>2.6776261473459274E-3</v>
+      </c>
+      <c r="J21">
+        <f>H21-I21</f>
+        <v>0.26508498858724683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>12</v>
       </c>
@@ -885,8 +900,20 @@
       <c r="G22" s="2">
         <v>24.83</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" ref="H22:H24" si="3">G22/$G$25</f>
+        <v>0.30146666019134571</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:I23" si="4">H22*0.01</f>
+        <v>3.0146666019134571E-3</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J23" si="5">H22-I22</f>
+        <v>0.29845199358943225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>13</v>
       </c>
@@ -908,8 +935,20 @@
       <c r="G23" s="2">
         <v>34.951999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>0.42436015735029864</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>4.2436015735029869E-3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="5"/>
+        <v>0.42011655577679563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -931,11 +970,389 @@
       <c r="G24" s="2">
         <v>0.52800000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>6.4105677237628091E-3</v>
+      </c>
+      <c r="I24">
+        <f>SUM(I21:I23)</f>
+        <v>9.9358943227623713E-3</v>
+      </c>
+      <c r="J24">
+        <f>H24+I24</f>
+        <v>1.6346462046525179E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F25">
         <f>SUM(F21:F24)</f>
         <v>23.381999999999998</v>
+      </c>
+      <c r="G25">
+        <f>SUM(G21:G24)</f>
+        <v>82.364000000000004</v>
+      </c>
+      <c r="H25">
+        <f>SUM(H21:H24)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="J25">
+        <f>SUM(J21:J24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <v>1.369985215</v>
+      </c>
+      <c r="C30" s="3">
+        <v>2.6469506250000001</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.85478229999999999</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.623906047</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <v>1.29012634</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.247096781</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.4330718</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1.3234316399999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <v>3.0331363759999999</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.7381833010000001</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.0978696999999999</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1.956396459</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>4.1308620170000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.636650162</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.8539030999999999</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.54047176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <v>0.42005092300000002</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.14829783799999999</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.82316310000000004</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.46383728699999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <v>0.25208776199999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.2129293000000003E-2</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.17072680000000001</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.151647952</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <v>0.50590202200000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2.1225914220000002</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.1109256999999999</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.2464730479999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <v>0.74576949599999998</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.84370836599999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.52598060000000002</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.70515282099999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <v>1.742797513</v>
+      </c>
+      <c r="C38" s="3">
+        <v>8.9184510000000009E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.90815440000000003</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.88662345499999995</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <v>0.95422971099999998</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.5550120000000001E-2</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.75071</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.90682994400000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <v>0.45917835800000001</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.50675097899999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.1563026000000001</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.70741064600000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>0.691602783</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.11799797200000001</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.86609460000000005</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.55856511799999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <v>0.81203088899999998</v>
+      </c>
+      <c r="C42" s="3">
+        <v>4.0018692000000002E-2</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.2471701</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.36640655999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <v>1.4426165609999999</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2.5154610000000001E-3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.47220459999999997</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.63911220700000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <v>0.60798061800000003</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5.0309209999999998E-3</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.8800787999999999</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.83103011299999996</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1.7113916140000001</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2.5592525199999998</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.5043267</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1.9249902780000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <v>0.25900215300000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.1704216999999999</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.47647461800000002</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <v>0.42353205799999999</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.107593112</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.65724190000000005</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.39612235699999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <v>1.2409990879999999</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.501034023</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.76190219999999997</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.83464510400000003</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>0.46672045600000001</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.320721231</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.80068729999999999</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.52937632899999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <v>0.50103827999999995</v>
+      </c>
+      <c r="C50" s="3">
+        <v>2.7001183160000002</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.61756370000000005</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.2729067650000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>0.83500581399999996</v>
+      </c>
+      <c r="C51" s="3">
+        <v>5.2993895289999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1.5855968</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.5733307139999999</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>1.444669473</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.39950088499999997</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.75112140000000005</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.86509725299999995</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f>SUM(B30:B52)</f>
+        <v>25.34071552</v>
+      </c>
+      <c r="C53">
+        <f>SUM(C30:C52)</f>
+        <v>22.999999999999996</v>
+      </c>
+      <c r="D53">
+        <f>SUM(D30:D52)</f>
+        <v>22.999999899999999</v>
+      </c>
+      <c r="E53">
+        <f>SUM(E30:E52)</f>
+        <v>23.780238475000001</v>
       </c>
     </row>
   </sheetData>
